--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_11.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-22935.36874716036</v>
+        <v>-9209.010609742221</v>
       </c>
     </row>
     <row r="7">
@@ -26320,7 +26322,7 @@
         <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
-        <v>62876.30148242498</v>
+        <v>62876.30148242497</v>
       </c>
       <c r="F2" t="n">
         <v>62876.30148242498</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26528,7 +26530,7 @@
         <v>-28252.22972342768</v>
       </c>
       <c r="E6" t="n">
-        <v>-105690.0306243832</v>
+        <v>-105690.0306243833</v>
       </c>
       <c r="F6" t="n">
         <v>27409.96937561678</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_11.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_10_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-9209.010609742221</v>
+        <v>-134318.9094072189</v>
       </c>
     </row>
     <row r="7">
@@ -26316,13 +26316,13 @@
         <v>59129.07304229552</v>
       </c>
       <c r="C2" t="n">
-        <v>59129.07304229552</v>
+        <v>59129.07304229551</v>
       </c>
       <c r="D2" t="n">
         <v>59129.07304229552</v>
       </c>
       <c r="E2" t="n">
-        <v>62876.30148242497</v>
+        <v>62876.30148242498</v>
       </c>
       <c r="F2" t="n">
         <v>62876.30148242498</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="C6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346246</v>
       </c>
       <c r="D6" t="n">
-        <v>-28252.22972342768</v>
+        <v>-43402.90369346245</v>
       </c>
       <c r="E6" t="n">
-        <v>-105690.0306243833</v>
+        <v>-120500.0474634972</v>
       </c>
       <c r="F6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="G6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="H6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="I6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="J6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="K6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="L6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="M6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="N6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="O6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
       <c r="P6" t="n">
-        <v>27409.96937561678</v>
+        <v>12599.95253650287</v>
       </c>
     </row>
   </sheetData>
